--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/INDIANA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/INDIANA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1368"/>
+  <dimension ref="A1:D1362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C33">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C41">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C68">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C69">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C98">
@@ -1990,7 +1990,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C123">
@@ -2125,7 +2125,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C133">
@@ -2151,7 +2151,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2208,7 +2208,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C139">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C153">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C162">
@@ -2629,7 +2629,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C171">
@@ -2707,12 +2707,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C177">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C180">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C181">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C187">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C194">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C198">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C205">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C210">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C222">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C229">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C230">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C233">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C242">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C252">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C256">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C257">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C258">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C259">
@@ -3863,7 +3863,7 @@
         <v>1218</v>
       </c>
       <c r="D265">
-        <v>0.09525299131930867</v>
+        <v>0.09525299131930869</v>
       </c>
     </row>
     <row r="266">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C268">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C269">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C270">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C277">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C281">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C289">
@@ -4225,7 +4225,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C293">
@@ -4251,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C295">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C297">
@@ -4303,7 +4303,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C299">
@@ -4329,7 +4329,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C301">
@@ -4381,7 +4381,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C305">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C311">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C313">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C314">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C318">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C320">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C321">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C324">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C325">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C326">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C327">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C332">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C333">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C337">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C338">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C344">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C345">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C347">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C348">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C350">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C364">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C366">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C368">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C370">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C374">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C381">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C387">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C390">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C394">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C397">
@@ -5626,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C400">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C407">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C408">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C409">
@@ -5769,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C411">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C412">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C414">
@@ -5860,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C418">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C423">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C425">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C430">
@@ -6029,7 +6029,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C431">
@@ -6055,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C433">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C437">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C442">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C446">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C452">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C455">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C459">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C460">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C461">
@@ -6476,7 +6476,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C465">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C470">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C471">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C478">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C482">
@@ -6723,7 +6723,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C484">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C488">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C489">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C490">
@@ -6840,7 +6840,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C493">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C497">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C506">
@@ -7022,7 +7022,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C507">
@@ -7035,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C508">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C509">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C514">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C515">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C517">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C518">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C519">
@@ -7456,7 +7456,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C540">
@@ -7482,7 +7482,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C542">
@@ -8236,7 +8236,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C600">
@@ -8514,7 +8514,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C621">
@@ -8605,7 +8605,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C628">
@@ -8657,7 +8657,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C632">
@@ -8722,7 +8722,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C637">
@@ -8735,7 +8735,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C638">
@@ -8826,7 +8826,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C645">
@@ -8883,7 +8883,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C649">
@@ -9083,7 +9083,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C664">
@@ -9174,7 +9174,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C671">
@@ -9213,7 +9213,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C674">
@@ -9265,7 +9265,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C678">
@@ -9322,7 +9322,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C682">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C687">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C688">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C690">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C692">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C693">
@@ -9478,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C694">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C696">
@@ -9517,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C697">
@@ -9569,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C701">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C703">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C704">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C705">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C707">
@@ -9764,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C716">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C727">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C742">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C766">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C767">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C774">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C778">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C790">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C802">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C812">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C826">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C843">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C854">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C855">
@@ -11597,7 +11597,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C857">
@@ -11610,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C858">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C859">
@@ -11649,7 +11649,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C861">
@@ -11662,7 +11662,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C862">
@@ -11675,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C863">
@@ -11688,7 +11688,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C864">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C865">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C866">
@@ -11727,7 +11727,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C867">
@@ -11953,7 +11953,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C884">
@@ -11992,7 +11992,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C887">
@@ -12109,7 +12109,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C896">
@@ -12213,7 +12213,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C904">
@@ -12369,7 +12369,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C916">
@@ -12421,7 +12421,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C920">
@@ -12460,7 +12460,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C923">
@@ -12551,7 +12551,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C930">
@@ -12655,7 +12655,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C938">
@@ -12889,7 +12889,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C956">
@@ -12902,7 +12902,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C957">
@@ -12954,7 +12954,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C961">
@@ -13058,7 +13058,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C969">
@@ -13071,7 +13071,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C970">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C976">
@@ -13175,7 +13175,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C978">
@@ -13188,7 +13188,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C979">
@@ -13253,7 +13253,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C984">
@@ -13474,7 +13474,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1001">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1009">
@@ -13609,7 +13609,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1011">
@@ -13648,7 +13648,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1014">
@@ -13661,7 +13661,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1015">
@@ -13700,7 +13700,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1018">
@@ -13726,7 +13726,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1020">
@@ -13905,7 +13905,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1033">
@@ -13931,7 +13931,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1035">
@@ -14022,7 +14022,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1042">
@@ -14087,7 +14087,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1047">
@@ -14126,7 +14126,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1050">
@@ -14152,7 +14152,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1052">
@@ -14243,7 +14243,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1059">
@@ -14269,7 +14269,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1061">
@@ -14282,7 +14282,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1062">
@@ -14295,7 +14295,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1063">
@@ -14308,7 +14308,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1064">
@@ -14869,7 +14869,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1106">
@@ -15225,7 +15225,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1133">
@@ -15360,7 +15360,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1143">
@@ -15412,7 +15412,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1147">
@@ -15438,7 +15438,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1149">
@@ -15477,7 +15477,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1152">
@@ -15516,7 +15516,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1155">
@@ -15768,7 +15768,7 @@
     <row r="1174">
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1174">
@@ -15820,7 +15820,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1178">
@@ -15963,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1189">
@@ -15989,7 +15989,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1191">
@@ -16158,7 +16158,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1204">
@@ -16171,7 +16171,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1205">
@@ -16353,7 +16353,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1219">
@@ -16366,7 +16366,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1220">
@@ -16379,7 +16379,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1221">
@@ -16405,7 +16405,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1223">
@@ -16418,7 +16418,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1224">
@@ -16431,7 +16431,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1225">
@@ -16548,7 +16548,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1234">
@@ -16587,7 +16587,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1237">
@@ -16626,7 +16626,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1240">
@@ -16678,7 +16678,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1244">
@@ -16704,7 +16704,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1246">
@@ -16847,7 +16847,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1257">
@@ -16899,7 +16899,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1261">
@@ -16951,7 +16951,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1265">
@@ -17042,7 +17042,7 @@
     <row r="1272">
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1272">
@@ -17068,7 +17068,7 @@
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1274">
@@ -17432,7 +17432,7 @@
     <row r="1302">
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1302">
@@ -17806,7 +17806,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1330">
@@ -17884,7 +17884,7 @@
     <row r="1336">
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1336">
@@ -17949,7 +17949,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1341">
@@ -17962,7 +17962,7 @@
     <row r="1342">
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1342">
@@ -17975,7 +17975,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1343">
@@ -18079,7 +18079,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1351">
@@ -18092,7 +18092,7 @@
     <row r="1352">
       <c r="B1352" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1352">
@@ -18131,7 +18131,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1355">
@@ -18230,41 +18230,6 @@
       </c>
       <c r="D1362">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1366">
-      <c r="A1366" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1367">
-      <c r="A1367" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1368">
-      <c r="A1368" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
